--- a/Excel/xqf131/xqf131CooperativeAntColony2exp1.xlsx
+++ b/Excel/xqf131/xqf131CooperativeAntColony2exp1.xlsx
@@ -458,10 +458,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>2.969267667000167</v>
+        <v>0.2082490649991087</v>
       </c>
       <c r="D2" t="n">
-        <v>1573</v>
+        <v>617</v>
       </c>
     </row>
     <row r="3">
@@ -472,10 +472,10 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>5.220713530000012</v>
+        <v>0.3808240419994036</v>
       </c>
       <c r="D3" t="n">
-        <v>1559</v>
+        <v>599</v>
       </c>
     </row>
     <row r="4">
@@ -486,10 +486,10 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>7.159621102000074</v>
+        <v>0.6604320499991445</v>
       </c>
       <c r="D4" t="n">
-        <v>1528</v>
+        <v>589</v>
       </c>
     </row>
     <row r="5">
@@ -500,10 +500,10 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>9.496689638000134</v>
+        <v>0.9274017009993258</v>
       </c>
       <c r="D5" t="n">
-        <v>1528</v>
+        <v>589</v>
       </c>
     </row>
     <row r="6">
@@ -514,10 +514,10 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>12.51776661300028</v>
+        <v>1.182822984999802</v>
       </c>
       <c r="D6" t="n">
-        <v>1528</v>
+        <v>589</v>
       </c>
     </row>
     <row r="7">
@@ -528,10 +528,10 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>15.78585809700007</v>
+        <v>1.387466209999729</v>
       </c>
       <c r="D7" t="n">
-        <v>1528</v>
+        <v>588</v>
       </c>
     </row>
     <row r="8">
@@ -542,10 +542,10 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>19.01582070900031</v>
+        <v>1.633277954999357</v>
       </c>
       <c r="D8" t="n">
-        <v>1528</v>
+        <v>584</v>
       </c>
     </row>
     <row r="9">
@@ -556,10 +556,10 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>22.88881554800037</v>
+        <v>1.960144915999081</v>
       </c>
       <c r="D9" t="n">
-        <v>1528</v>
+        <v>584</v>
       </c>
     </row>
     <row r="10">
@@ -570,10 +570,10 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>26.48019273800037</v>
+        <v>2.30590781599949</v>
       </c>
       <c r="D10" t="n">
-        <v>1528</v>
+        <v>584</v>
       </c>
     </row>
     <row r="11">
@@ -584,10 +584,10 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>29.49292890500055</v>
+        <v>2.601384313999915</v>
       </c>
       <c r="D11" t="n">
-        <v>1521</v>
+        <v>584</v>
       </c>
     </row>
     <row r="12">
@@ -598,10 +598,10 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>33.15080860200078</v>
+        <v>2.915525563000301</v>
       </c>
       <c r="D12" t="n">
-        <v>1521</v>
+        <v>584</v>
       </c>
     </row>
     <row r="13">
@@ -612,10 +612,10 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>36.8668185140009</v>
+        <v>3.204756572999941</v>
       </c>
       <c r="D13" t="n">
-        <v>1521</v>
+        <v>584</v>
       </c>
     </row>
     <row r="14">
@@ -626,10 +626,10 @@
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>39.61818023600108</v>
+        <v>3.51352537099956</v>
       </c>
       <c r="D14" t="n">
-        <v>1521</v>
+        <v>584</v>
       </c>
     </row>
     <row r="15">
@@ -640,10 +640,10 @@
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>42.1126011790011</v>
+        <v>3.821653430999504</v>
       </c>
       <c r="D15" t="n">
-        <v>1512</v>
+        <v>584</v>
       </c>
     </row>
     <row r="16">
@@ -654,10 +654,10 @@
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>44.85712507600101</v>
+        <v>4.145028013999763</v>
       </c>
       <c r="D16" t="n">
-        <v>1512</v>
+        <v>584</v>
       </c>
     </row>
     <row r="17">
@@ -668,10 +668,10 @@
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>48.30954780900129</v>
+        <v>4.445186720000493</v>
       </c>
       <c r="D17" t="n">
-        <v>1512</v>
+        <v>584</v>
       </c>
     </row>
     <row r="18">
@@ -682,10 +682,10 @@
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>50.70503300100154</v>
+        <v>4.637563656000566</v>
       </c>
       <c r="D18" t="n">
-        <v>1512</v>
+        <v>584</v>
       </c>
     </row>
     <row r="19">
@@ -696,10 +696,10 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>53.75443522600153</v>
+        <v>4.892715672001032</v>
       </c>
       <c r="D19" t="n">
-        <v>1512</v>
+        <v>584</v>
       </c>
     </row>
     <row r="20">
@@ -710,10 +710,10 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>56.75340861200129</v>
+        <v>5.12428187200112</v>
       </c>
       <c r="D20" t="n">
-        <v>1512</v>
+        <v>584</v>
       </c>
     </row>
     <row r="21">
@@ -724,10 +724,10 @@
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>59.88978368800099</v>
+        <v>5.306762872000945</v>
       </c>
       <c r="D21" t="n">
-        <v>1512</v>
+        <v>584</v>
       </c>
     </row>
     <row r="22">
@@ -738,10 +738,10 @@
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>62.81401469600132</v>
+        <v>5.581147424000847</v>
       </c>
       <c r="D22" t="n">
-        <v>1512</v>
+        <v>584</v>
       </c>
     </row>
     <row r="23">
@@ -752,10 +752,10 @@
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>64.84691899800146</v>
+        <v>5.804577006000727</v>
       </c>
       <c r="D23" t="n">
-        <v>1512</v>
+        <v>584</v>
       </c>
     </row>
     <row r="24">
@@ -766,10 +766,10 @@
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>67.57097866600134</v>
+        <v>6.068682410000292</v>
       </c>
       <c r="D24" t="n">
-        <v>1512</v>
+        <v>584</v>
       </c>
     </row>
     <row r="25">
@@ -780,10 +780,10 @@
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>70.27138109400175</v>
+        <v>6.32653037900036</v>
       </c>
       <c r="D25" t="n">
-        <v>1508</v>
+        <v>584</v>
       </c>
     </row>
     <row r="26">
@@ -794,10 +794,10 @@
         <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>72.58151737700155</v>
+        <v>6.572715590000371</v>
       </c>
       <c r="D26" t="n">
-        <v>1508</v>
+        <v>584</v>
       </c>
     </row>
     <row r="27">
@@ -808,10 +808,10 @@
         <v>26</v>
       </c>
       <c r="C27" t="n">
-        <v>75.97314457900166</v>
+        <v>6.814814584000487</v>
       </c>
       <c r="D27" t="n">
-        <v>1508</v>
+        <v>584</v>
       </c>
     </row>
     <row r="28">
@@ -822,10 +822,10 @@
         <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>78.72034831000155</v>
+        <v>7.066301243999987</v>
       </c>
       <c r="D28" t="n">
-        <v>1508</v>
+        <v>584</v>
       </c>
     </row>
     <row r="29">
@@ -836,10 +836,10 @@
         <v>28</v>
       </c>
       <c r="C29" t="n">
-        <v>81.92783176400144</v>
+        <v>7.334299326000291</v>
       </c>
       <c r="D29" t="n">
-        <v>1506</v>
+        <v>584</v>
       </c>
     </row>
     <row r="30">
@@ -850,10 +850,10 @@
         <v>29</v>
       </c>
       <c r="C30" t="n">
-        <v>84.90327975400169</v>
+        <v>7.649343554000552</v>
       </c>
       <c r="D30" t="n">
-        <v>1506</v>
+        <v>584</v>
       </c>
     </row>
     <row r="31">
@@ -864,10 +864,10 @@
         <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>86.95583044100158</v>
+        <v>7.971670431001257</v>
       </c>
       <c r="D31" t="n">
-        <v>1506</v>
+        <v>577</v>
       </c>
     </row>
     <row r="32">
@@ -878,10 +878,10 @@
         <v>31</v>
       </c>
       <c r="C32" t="n">
-        <v>89.35970327000177</v>
+        <v>8.303166617001807</v>
       </c>
       <c r="D32" t="n">
-        <v>1506</v>
+        <v>577</v>
       </c>
     </row>
     <row r="33">
@@ -892,10 +892,10 @@
         <v>32</v>
       </c>
       <c r="C33" t="n">
-        <v>92.95251884000163</v>
+        <v>8.63169470000139</v>
       </c>
       <c r="D33" t="n">
-        <v>1506</v>
+        <v>577</v>
       </c>
     </row>
     <row r="34">
@@ -906,10 +906,10 @@
         <v>33</v>
       </c>
       <c r="C34" t="n">
-        <v>95.40164900500167</v>
+        <v>8.991948822001177</v>
       </c>
       <c r="D34" t="n">
-        <v>1506</v>
+        <v>577</v>
       </c>
     </row>
     <row r="35">
@@ -920,10 +920,10 @@
         <v>34</v>
       </c>
       <c r="C35" t="n">
-        <v>98.31904492300191</v>
+        <v>9.336747312000625</v>
       </c>
       <c r="D35" t="n">
-        <v>1506</v>
+        <v>577</v>
       </c>
     </row>
     <row r="36">
@@ -934,10 +934,10 @@
         <v>35</v>
       </c>
       <c r="C36" t="n">
-        <v>100.9709583810018</v>
+        <v>9.629153892000431</v>
       </c>
       <c r="D36" t="n">
-        <v>1506</v>
+        <v>577</v>
       </c>
     </row>
     <row r="37">
@@ -948,10 +948,10 @@
         <v>36</v>
       </c>
       <c r="C37" t="n">
-        <v>103.982599876002</v>
+        <v>9.885713426000621</v>
       </c>
       <c r="D37" t="n">
-        <v>1504</v>
+        <v>577</v>
       </c>
     </row>
     <row r="38">
@@ -962,10 +962,10 @@
         <v>37</v>
       </c>
       <c r="C38" t="n">
-        <v>106.935488078002</v>
+        <v>10.14967124000032</v>
       </c>
       <c r="D38" t="n">
-        <v>1504</v>
+        <v>570</v>
       </c>
     </row>
     <row r="39">
@@ -976,10 +976,10 @@
         <v>38</v>
       </c>
       <c r="C39" t="n">
-        <v>110.6267127550022</v>
+        <v>10.34902330499972</v>
       </c>
       <c r="D39" t="n">
-        <v>1504</v>
+        <v>570</v>
       </c>
     </row>
     <row r="40">
@@ -990,10 +990,10 @@
         <v>39</v>
       </c>
       <c r="C40" t="n">
-        <v>113.3762637540026</v>
+        <v>10.60102739599915</v>
       </c>
       <c r="D40" t="n">
-        <v>1504</v>
+        <v>570</v>
       </c>
     </row>
     <row r="41">
@@ -1004,10 +1004,10 @@
         <v>40</v>
       </c>
       <c r="C41" t="n">
-        <v>116.8609865190028</v>
+        <v>10.78359232199909</v>
       </c>
       <c r="D41" t="n">
-        <v>1504</v>
+        <v>570</v>
       </c>
     </row>
     <row r="42">
@@ -1018,10 +1018,10 @@
         <v>41</v>
       </c>
       <c r="C42" t="n">
-        <v>120.8065897800029</v>
+        <v>11.01851380799962</v>
       </c>
       <c r="D42" t="n">
-        <v>1504</v>
+        <v>570</v>
       </c>
     </row>
     <row r="43">
@@ -1032,10 +1032,10 @@
         <v>42</v>
       </c>
       <c r="C43" t="n">
-        <v>125.0192937930028</v>
+        <v>11.24674346699976</v>
       </c>
       <c r="D43" t="n">
-        <v>1504</v>
+        <v>570</v>
       </c>
     </row>
     <row r="44">
@@ -1046,10 +1046,10 @@
         <v>43</v>
       </c>
       <c r="C44" t="n">
-        <v>127.4891171820027</v>
+        <v>11.47089685900028</v>
       </c>
       <c r="D44" t="n">
-        <v>1504</v>
+        <v>570</v>
       </c>
     </row>
     <row r="45">
@@ -1060,10 +1060,10 @@
         <v>44</v>
       </c>
       <c r="C45" t="n">
-        <v>130.4194807020031</v>
+        <v>11.75023619500007</v>
       </c>
       <c r="D45" t="n">
-        <v>1502</v>
+        <v>570</v>
       </c>
     </row>
     <row r="46">
@@ -1074,10 +1074,10 @@
         <v>45</v>
       </c>
       <c r="C46" t="n">
-        <v>132.5457267870029</v>
+        <v>11.9989817429996</v>
       </c>
       <c r="D46" t="n">
-        <v>1502</v>
+        <v>570</v>
       </c>
     </row>
     <row r="47">
@@ -1088,10 +1088,10 @@
         <v>46</v>
       </c>
       <c r="C47" t="n">
-        <v>136.1681305870029</v>
+        <v>12.26864933699926</v>
       </c>
       <c r="D47" t="n">
-        <v>1502</v>
+        <v>570</v>
       </c>
     </row>
     <row r="48">
@@ -1102,10 +1102,10 @@
         <v>47</v>
       </c>
       <c r="C48" t="n">
-        <v>139.901488274003</v>
+        <v>12.48418589499943</v>
       </c>
       <c r="D48" t="n">
-        <v>1502</v>
+        <v>570</v>
       </c>
     </row>
     <row r="49">
@@ -1116,10 +1116,10 @@
         <v>48</v>
       </c>
       <c r="C49" t="n">
-        <v>143.099548801003</v>
+        <v>12.71234666299915</v>
       </c>
       <c r="D49" t="n">
-        <v>1502</v>
+        <v>570</v>
       </c>
     </row>
     <row r="50">
@@ -1130,10 +1130,10 @@
         <v>49</v>
       </c>
       <c r="C50" t="n">
-        <v>145.5754864780033</v>
+        <v>12.97985474599955</v>
       </c>
       <c r="D50" t="n">
-        <v>1502</v>
+        <v>569</v>
       </c>
     </row>
     <row r="51">
@@ -1144,10 +1144,10 @@
         <v>50</v>
       </c>
       <c r="C51" t="n">
-        <v>148.7331657430032</v>
+        <v>13.26302175599994</v>
       </c>
       <c r="D51" t="n">
-        <v>1501</v>
+        <v>569</v>
       </c>
     </row>
     <row r="52">
@@ -1158,10 +1158,10 @@
         <v>51</v>
       </c>
       <c r="C52" t="n">
-        <v>152.1844760710032</v>
+        <v>13.49724847000016</v>
       </c>
       <c r="D52" t="n">
-        <v>1501</v>
+        <v>568</v>
       </c>
     </row>
     <row r="53">
@@ -1172,10 +1172,10 @@
         <v>52</v>
       </c>
       <c r="C53" t="n">
-        <v>156.3187801030031</v>
+        <v>13.75031987999955</v>
       </c>
       <c r="D53" t="n">
-        <v>1501</v>
+        <v>568</v>
       </c>
     </row>
     <row r="54">
@@ -1186,10 +1186,10 @@
         <v>53</v>
       </c>
       <c r="C54" t="n">
-        <v>160.3656879560031</v>
+        <v>13.9918831469995</v>
       </c>
       <c r="D54" t="n">
-        <v>1501</v>
+        <v>568</v>
       </c>
     </row>
     <row r="55">
@@ -1200,10 +1200,10 @@
         <v>54</v>
       </c>
       <c r="C55" t="n">
-        <v>164.3748944410031</v>
+        <v>14.28181850799956</v>
       </c>
       <c r="D55" t="n">
-        <v>1501</v>
+        <v>568</v>
       </c>
     </row>
     <row r="56">
@@ -1214,10 +1214,10 @@
         <v>55</v>
       </c>
       <c r="C56" t="n">
-        <v>167.9088320560031</v>
+        <v>14.60571998399882</v>
       </c>
       <c r="D56" t="n">
-        <v>1501</v>
+        <v>568</v>
       </c>
     </row>
     <row r="57">
@@ -1228,10 +1228,10 @@
         <v>56</v>
       </c>
       <c r="C57" t="n">
-        <v>171.8677734580028</v>
+        <v>14.90562686099929</v>
       </c>
       <c r="D57" t="n">
-        <v>1501</v>
+        <v>568</v>
       </c>
     </row>
     <row r="58">
@@ -1242,10 +1242,10 @@
         <v>57</v>
       </c>
       <c r="C58" t="n">
-        <v>175.6159363060028</v>
+        <v>15.10664230599923</v>
       </c>
       <c r="D58" t="n">
-        <v>1501</v>
+        <v>568</v>
       </c>
     </row>
     <row r="59">
@@ -1256,10 +1256,10 @@
         <v>58</v>
       </c>
       <c r="C59" t="n">
-        <v>179.5578914940029</v>
+        <v>15.32314459699955</v>
       </c>
       <c r="D59" t="n">
-        <v>1501</v>
+        <v>568</v>
       </c>
     </row>
     <row r="60">
@@ -1270,10 +1270,10 @@
         <v>59</v>
       </c>
       <c r="C60" t="n">
-        <v>181.8829612630029</v>
+        <v>15.6048590800001</v>
       </c>
       <c r="D60" t="n">
-        <v>1501</v>
+        <v>568</v>
       </c>
     </row>
     <row r="61">
@@ -1284,10 +1284,10 @@
         <v>60</v>
       </c>
       <c r="C61" t="n">
-        <v>184.0634762910031</v>
+        <v>15.93790873600028</v>
       </c>
       <c r="D61" t="n">
-        <v>1501</v>
+        <v>568</v>
       </c>
     </row>
     <row r="62">
@@ -1298,10 +1298,10 @@
         <v>61</v>
       </c>
       <c r="C62" t="n">
-        <v>188.0657589480033</v>
+        <v>16.21613157100091</v>
       </c>
       <c r="D62" t="n">
-        <v>1501</v>
+        <v>568</v>
       </c>
     </row>
     <row r="63">
@@ -1312,10 +1312,10 @@
         <v>62</v>
       </c>
       <c r="C63" t="n">
-        <v>191.5154223290033</v>
+        <v>16.47508512300101</v>
       </c>
       <c r="D63" t="n">
-        <v>1501</v>
+        <v>567</v>
       </c>
     </row>
     <row r="64">
@@ -1326,10 +1326,10 @@
         <v>63</v>
       </c>
       <c r="C64" t="n">
-        <v>194.3820675790034</v>
+        <v>16.81488312500096</v>
       </c>
       <c r="D64" t="n">
-        <v>1501</v>
+        <v>567</v>
       </c>
     </row>
     <row r="65">
@@ -1340,10 +1340,10 @@
         <v>64</v>
       </c>
       <c r="C65" t="n">
-        <v>197.5268773040034</v>
+        <v>17.12423594900065</v>
       </c>
       <c r="D65" t="n">
-        <v>1501</v>
+        <v>567</v>
       </c>
     </row>
     <row r="66">
@@ -1354,10 +1354,10 @@
         <v>65</v>
       </c>
       <c r="C66" t="n">
-        <v>200.4099283070032</v>
+        <v>17.47670377900067</v>
       </c>
       <c r="D66" t="n">
-        <v>1500</v>
+        <v>567</v>
       </c>
     </row>
     <row r="67">
@@ -1368,10 +1368,10 @@
         <v>66</v>
       </c>
       <c r="C67" t="n">
-        <v>204.2228105900035</v>
+        <v>17.73764404200028</v>
       </c>
       <c r="D67" t="n">
-        <v>1500</v>
+        <v>567</v>
       </c>
     </row>
     <row r="68">
@@ -1382,10 +1382,10 @@
         <v>67</v>
       </c>
       <c r="C68" t="n">
-        <v>207.5907961380035</v>
+        <v>18.00755884200044</v>
       </c>
       <c r="D68" t="n">
-        <v>1500</v>
+        <v>567</v>
       </c>
     </row>
     <row r="69">
@@ -1396,10 +1396,10 @@
         <v>68</v>
       </c>
       <c r="C69" t="n">
-        <v>211.7163628840035</v>
+        <v>18.28707734599993</v>
       </c>
       <c r="D69" t="n">
-        <v>1500</v>
+        <v>567</v>
       </c>
     </row>
     <row r="70">
@@ -1410,10 +1410,10 @@
         <v>69</v>
       </c>
       <c r="C70" t="n">
-        <v>215.4371767290036</v>
+        <v>18.57023654300065</v>
       </c>
       <c r="D70" t="n">
-        <v>1500</v>
+        <v>567</v>
       </c>
     </row>
     <row r="71">
@@ -1424,10 +1424,10 @@
         <v>70</v>
       </c>
       <c r="C71" t="n">
-        <v>219.3071909300033</v>
+        <v>18.89283451600113</v>
       </c>
       <c r="D71" t="n">
-        <v>1500</v>
+        <v>567</v>
       </c>
     </row>
     <row r="72">
@@ -1438,10 +1438,10 @@
         <v>71</v>
       </c>
       <c r="C72" t="n">
-        <v>222.4877182280034</v>
+        <v>19.16134770600092</v>
       </c>
       <c r="D72" t="n">
-        <v>1500</v>
+        <v>567</v>
       </c>
     </row>
     <row r="73">
@@ -1452,10 +1452,10 @@
         <v>72</v>
       </c>
       <c r="C73" t="n">
-        <v>225.9337793000032</v>
+        <v>19.42676885600031</v>
       </c>
       <c r="D73" t="n">
-        <v>1500</v>
+        <v>567</v>
       </c>
     </row>
     <row r="74">
@@ -1466,10 +1466,10 @@
         <v>73</v>
       </c>
       <c r="C74" t="n">
-        <v>229.8348386200032</v>
+        <v>19.72783837600036</v>
       </c>
       <c r="D74" t="n">
-        <v>1500</v>
+        <v>567</v>
       </c>
     </row>
     <row r="75">
@@ -1480,10 +1480,10 @@
         <v>74</v>
       </c>
       <c r="C75" t="n">
-        <v>234.5807136400031</v>
+        <v>20.05999611600055</v>
       </c>
       <c r="D75" t="n">
-        <v>1500</v>
+        <v>567</v>
       </c>
     </row>
     <row r="76">
@@ -1494,10 +1494,10 @@
         <v>75</v>
       </c>
       <c r="C76" t="n">
-        <v>238.8872464950032</v>
+        <v>20.36795098699986</v>
       </c>
       <c r="D76" t="n">
-        <v>1500</v>
+        <v>567</v>
       </c>
     </row>
     <row r="77">
@@ -1508,10 +1508,10 @@
         <v>76</v>
       </c>
       <c r="C77" t="n">
-        <v>243.322357274003</v>
+        <v>20.65938034999999</v>
       </c>
       <c r="D77" t="n">
-        <v>1500</v>
+        <v>567</v>
       </c>
     </row>
     <row r="78">
@@ -1522,10 +1522,10 @@
         <v>77</v>
       </c>
       <c r="C78" t="n">
-        <v>247.4943741040033</v>
+        <v>20.99775783999939</v>
       </c>
       <c r="D78" t="n">
-        <v>1500</v>
+        <v>567</v>
       </c>
     </row>
     <row r="79">
@@ -1536,10 +1536,10 @@
         <v>78</v>
       </c>
       <c r="C79" t="n">
-        <v>251.3800239640036</v>
+        <v>21.31917041799898</v>
       </c>
       <c r="D79" t="n">
-        <v>1500</v>
+        <v>567</v>
       </c>
     </row>
     <row r="80">
@@ -1550,10 +1550,10 @@
         <v>79</v>
       </c>
       <c r="C80" t="n">
-        <v>254.6420004330034</v>
+        <v>21.60175734199947</v>
       </c>
       <c r="D80" t="n">
-        <v>1500</v>
+        <v>567</v>
       </c>
     </row>
     <row r="81">
@@ -1564,10 +1564,10 @@
         <v>80</v>
       </c>
       <c r="C81" t="n">
-        <v>258.9196294850035</v>
+        <v>21.90945790499973</v>
       </c>
       <c r="D81" t="n">
-        <v>1500</v>
+        <v>567</v>
       </c>
     </row>
     <row r="82">
@@ -1578,10 +1578,10 @@
         <v>81</v>
       </c>
       <c r="C82" t="n">
-        <v>263.8175978810032</v>
+        <v>22.19615659299961</v>
       </c>
       <c r="D82" t="n">
-        <v>1500</v>
+        <v>567</v>
       </c>
     </row>
     <row r="83">
@@ -1592,10 +1592,10 @@
         <v>82</v>
       </c>
       <c r="C83" t="n">
-        <v>267.7558227400032</v>
+        <v>22.42077367000002</v>
       </c>
       <c r="D83" t="n">
-        <v>1500</v>
+        <v>567</v>
       </c>
     </row>
     <row r="84">
@@ -1606,10 +1606,10 @@
         <v>83</v>
       </c>
       <c r="C84" t="n">
-        <v>271.4785003190032</v>
+        <v>22.59654930099987</v>
       </c>
       <c r="D84" t="n">
-        <v>1500</v>
+        <v>567</v>
       </c>
     </row>
     <row r="85">
@@ -1620,10 +1620,10 @@
         <v>84</v>
       </c>
       <c r="C85" t="n">
-        <v>275.9580028260034</v>
+        <v>22.81900256399967</v>
       </c>
       <c r="D85" t="n">
-        <v>1500</v>
+        <v>567</v>
       </c>
     </row>
     <row r="86">
@@ -1634,10 +1634,10 @@
         <v>85</v>
       </c>
       <c r="C86" t="n">
-        <v>278.7833010040035</v>
+        <v>23.03540639699986</v>
       </c>
       <c r="D86" t="n">
-        <v>1500</v>
+        <v>567</v>
       </c>
     </row>
     <row r="87">
@@ -1648,10 +1648,10 @@
         <v>86</v>
       </c>
       <c r="C87" t="n">
-        <v>282.0474585380034</v>
+        <v>23.2796056419993</v>
       </c>
       <c r="D87" t="n">
-        <v>1500</v>
+        <v>567</v>
       </c>
     </row>
     <row r="88">
@@ -1662,10 +1662,10 @@
         <v>87</v>
       </c>
       <c r="C88" t="n">
-        <v>285.5556754710033</v>
+        <v>23.53980282699922</v>
       </c>
       <c r="D88" t="n">
-        <v>1500</v>
+        <v>567</v>
       </c>
     </row>
     <row r="89">
@@ -1676,10 +1676,10 @@
         <v>88</v>
       </c>
       <c r="C89" t="n">
-        <v>288.9261149850031</v>
+        <v>23.80366531599975</v>
       </c>
       <c r="D89" t="n">
-        <v>1500</v>
+        <v>567</v>
       </c>
     </row>
     <row r="90">
@@ -1690,10 +1690,10 @@
         <v>89</v>
       </c>
       <c r="C90" t="n">
-        <v>292.796532308003</v>
+        <v>24.07062164499985</v>
       </c>
       <c r="D90" t="n">
-        <v>1500</v>
+        <v>567</v>
       </c>
     </row>
     <row r="91">
@@ -1704,10 +1704,10 @@
         <v>90</v>
       </c>
       <c r="C91" t="n">
-        <v>296.0876060910032</v>
+        <v>24.296371851</v>
       </c>
       <c r="D91" t="n">
-        <v>1500</v>
+        <v>567</v>
       </c>
     </row>
     <row r="92">
@@ -1718,10 +1718,10 @@
         <v>91</v>
       </c>
       <c r="C92" t="n">
-        <v>299.8984276920032</v>
+        <v>24.47270385399952</v>
       </c>
       <c r="D92" t="n">
-        <v>1500</v>
+        <v>567</v>
       </c>
     </row>
     <row r="93">
@@ -1732,10 +1732,10 @@
         <v>92</v>
       </c>
       <c r="C93" t="n">
-        <v>303.8665999890031</v>
+        <v>24.67035963499893</v>
       </c>
       <c r="D93" t="n">
-        <v>1500</v>
+        <v>567</v>
       </c>
     </row>
     <row r="94">
@@ -1746,10 +1746,10 @@
         <v>93</v>
       </c>
       <c r="C94" t="n">
-        <v>307.7936107410032</v>
+        <v>24.90544238499933</v>
       </c>
       <c r="D94" t="n">
-        <v>1500</v>
+        <v>567</v>
       </c>
     </row>
     <row r="95">
@@ -1760,10 +1760,10 @@
         <v>94</v>
       </c>
       <c r="C95" t="n">
-        <v>311.3876933730035</v>
+        <v>25.23875137999948</v>
       </c>
       <c r="D95" t="n">
-        <v>1500</v>
+        <v>567</v>
       </c>
     </row>
     <row r="96">
@@ -1774,10 +1774,10 @@
         <v>95</v>
       </c>
       <c r="C96" t="n">
-        <v>315.3185755240038</v>
+        <v>25.5436402639989</v>
       </c>
       <c r="D96" t="n">
-        <v>1500</v>
+        <v>567</v>
       </c>
     </row>
     <row r="97">
@@ -1788,10 +1788,10 @@
         <v>96</v>
       </c>
       <c r="C97" t="n">
-        <v>318.300333663004</v>
+        <v>25.8079580959984</v>
       </c>
       <c r="D97" t="n">
-        <v>1500</v>
+        <v>567</v>
       </c>
     </row>
     <row r="98">
@@ -1802,10 +1802,10 @@
         <v>97</v>
       </c>
       <c r="C98" t="n">
-        <v>322.159328373004</v>
+        <v>26.0916231029978</v>
       </c>
       <c r="D98" t="n">
-        <v>1500</v>
+        <v>567</v>
       </c>
     </row>
     <row r="99">
@@ -1816,10 +1816,10 @@
         <v>98</v>
       </c>
       <c r="C99" t="n">
-        <v>325.9411667590039</v>
+        <v>26.37191303199779</v>
       </c>
       <c r="D99" t="n">
-        <v>1500</v>
+        <v>567</v>
       </c>
     </row>
     <row r="100">
@@ -1830,10 +1830,10 @@
         <v>99</v>
       </c>
       <c r="C100" t="n">
-        <v>328.8729488770036</v>
+        <v>26.64464813099767</v>
       </c>
       <c r="D100" t="n">
-        <v>1500</v>
+        <v>567</v>
       </c>
     </row>
     <row r="101">
@@ -1844,10 +1844,10 @@
         <v>100</v>
       </c>
       <c r="C101" t="n">
-        <v>332.7151266580036</v>
+        <v>26.913922636998</v>
       </c>
       <c r="D101" t="n">
-        <v>1500</v>
+        <v>567</v>
       </c>
     </row>
   </sheetData>
